--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Alcam-Cd6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Alcam-Cd6.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H2">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I2">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J2">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0266875</v>
+        <v>0.08828649999999999</v>
       </c>
       <c r="N2">
-        <v>0.053375</v>
+        <v>0.176573</v>
       </c>
       <c r="O2">
-        <v>0.05837275886883162</v>
+        <v>0.1945084276006261</v>
       </c>
       <c r="P2">
-        <v>0.04078692984265988</v>
+        <v>0.1401762394315881</v>
       </c>
       <c r="Q2">
-        <v>0.00527215565625</v>
+        <v>0.02583850095225</v>
       </c>
       <c r="R2">
-        <v>0.021088622625</v>
+        <v>0.103354003809</v>
       </c>
       <c r="S2">
-        <v>0.0001786519021045272</v>
+        <v>0.0002669739471453206</v>
       </c>
       <c r="T2">
-        <v>8.373507632554571E-05</v>
+        <v>0.0001286765109275623</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H3">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I3">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J3">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.00886</v>
       </c>
       <c r="O3">
-        <v>0.006459736375679603</v>
+        <v>0.006506637173828191</v>
       </c>
       <c r="P3">
-        <v>0.0067704393143975</v>
+        <v>0.00703369983725638</v>
       </c>
       <c r="Q3">
-        <v>0.0005834354300000001</v>
+        <v>0.00086434173</v>
       </c>
       <c r="R3">
-        <v>0.00350061258</v>
+        <v>0.00518605038</v>
       </c>
       <c r="S3">
-        <v>1.977025264819498E-05</v>
+        <v>8.930731847290885E-06</v>
       </c>
       <c r="T3">
-        <v>1.389963046827794E-05</v>
+        <v>6.456671670177217E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H4">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I4">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J4">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05036233333333334</v>
+        <v>0.03946133333333333</v>
       </c>
       <c r="N4">
-        <v>0.151087</v>
+        <v>0.118384</v>
       </c>
       <c r="O4">
-        <v>0.1101560033625626</v>
+        <v>0.08693924776371068</v>
       </c>
       <c r="P4">
-        <v>0.1154543301009453</v>
+        <v>0.09398166157265907</v>
       </c>
       <c r="Q4">
-        <v>0.009949154493500001</v>
+        <v>0.011549010312</v>
       </c>
       <c r="R4">
-        <v>0.059694926961</v>
+        <v>0.069294061872</v>
       </c>
       <c r="S4">
-        <v>0.0003371363613835029</v>
+        <v>0.0001193290924390163</v>
       </c>
       <c r="T4">
-        <v>0.0002370263508533531</v>
+        <v>8.627162742689161E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H5">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I5">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J5">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0362555</v>
+        <v>0.01375</v>
       </c>
       <c r="N5">
-        <v>0.07251100000000001</v>
+        <v>0.0275</v>
       </c>
       <c r="O5">
-        <v>0.07930055491031102</v>
+        <v>0.03029331641313915</v>
       </c>
       <c r="P5">
-        <v>0.05540985610906063</v>
+        <v>0.02183146112015242</v>
       </c>
       <c r="Q5">
-        <v>0.007162328408250001</v>
+        <v>0.004024164375</v>
       </c>
       <c r="R5">
-        <v>0.02864931363300001</v>
+        <v>0.0160966575</v>
       </c>
       <c r="S5">
-        <v>0.0002427021653115011</v>
+        <v>4.157931023710485E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001137557680457451</v>
+        <v>2.004045947289768E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H6">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I6">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J6">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.006707333333333333</v>
+        <v>0.289306</v>
       </c>
       <c r="N6">
-        <v>0.020122</v>
+        <v>0.867918</v>
       </c>
       <c r="O6">
-        <v>0.0146707466536597</v>
+        <v>0.6373845962341553</v>
       </c>
       <c r="P6">
-        <v>0.01537638599145671</v>
+        <v>0.6890152026356526</v>
       </c>
       <c r="Q6">
-        <v>0.001325043761</v>
+        <v>0.084670174449</v>
       </c>
       <c r="R6">
-        <v>0.007950262566000002</v>
+        <v>0.5080210466939999</v>
       </c>
       <c r="S6">
-        <v>4.490034128521213E-05</v>
+        <v>0.0008748468310876987</v>
       </c>
       <c r="T6">
-        <v>3.156753547208676E-05</v>
+        <v>0.0006324900183563058</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1975515</v>
+        <v>0.2926665</v>
       </c>
       <c r="H7">
-        <v>0.395103</v>
+        <v>0.585333</v>
       </c>
       <c r="I7">
-        <v>0.003060535523187668</v>
+        <v>0.001372557222525514</v>
       </c>
       <c r="J7">
-        <v>0.002052987970621056</v>
+        <v>0.0009179623554558388</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.334225</v>
+        <v>0.02013833333333333</v>
       </c>
       <c r="N7">
-        <v>1.002675</v>
+        <v>0.060415</v>
       </c>
       <c r="O7">
-        <v>0.7310401998289555</v>
+        <v>0.04436777481454065</v>
       </c>
       <c r="P7">
-        <v>0.7662020586414801</v>
+        <v>0.04796173540269122</v>
       </c>
       <c r="Q7">
-        <v>0.0660266500875</v>
+        <v>0.0058938155325</v>
       </c>
       <c r="R7">
-        <v>0.3961599005250001</v>
+        <v>0.035362893195</v>
       </c>
       <c r="S7">
-        <v>0.00223737450045473</v>
+        <v>6.089730976908339E-05</v>
       </c>
       <c r="T7">
-        <v>0.001573003609456048</v>
+        <v>4.402706760200412E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>3.880765</v>
       </c>
       <c r="I8">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J8">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0266875</v>
+        <v>0.08828649999999999</v>
       </c>
       <c r="N8">
-        <v>0.053375</v>
+        <v>0.176573</v>
       </c>
       <c r="O8">
-        <v>0.05837275886883162</v>
+        <v>0.1945084276006261</v>
       </c>
       <c r="P8">
-        <v>0.04078692984265988</v>
+        <v>0.1401762394315881</v>
       </c>
       <c r="Q8">
-        <v>0.03452263864583333</v>
+        <v>0.1142063863908333</v>
       </c>
       <c r="R8">
-        <v>0.207135831875</v>
+        <v>0.6852383183449999</v>
       </c>
       <c r="S8">
-        <v>0.001169831746608986</v>
+        <v>0.001180027038732266</v>
       </c>
       <c r="T8">
-        <v>0.0008224593421880024</v>
+        <v>0.0008531268524580045</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3.880765</v>
       </c>
       <c r="I9">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J9">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.00886</v>
       </c>
       <c r="O9">
-        <v>0.006459736375679603</v>
+        <v>0.006506637173828191</v>
       </c>
       <c r="P9">
-        <v>0.0067704393143975</v>
+        <v>0.00703369983725638</v>
       </c>
       <c r="Q9">
         <v>0.003820397544444445</v>
@@ -1013,10 +1013,10 @@
         <v>0.0343835779</v>
       </c>
       <c r="S9">
-        <v>0.000129457727087658</v>
+        <v>3.947390810285406E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001365243985346268</v>
+        <v>4.280781270510169E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>3.880765</v>
       </c>
       <c r="I10">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J10">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.05036233333333334</v>
+        <v>0.03946133333333333</v>
       </c>
       <c r="N10">
-        <v>0.151087</v>
+        <v>0.118384</v>
       </c>
       <c r="O10">
-        <v>0.1101560033625626</v>
+        <v>0.08693924776371068</v>
       </c>
       <c r="P10">
-        <v>0.1154543301009453</v>
+        <v>0.09398166157265907</v>
       </c>
       <c r="Q10">
-        <v>0.06514812683944445</v>
+        <v>0.05104672041777778</v>
       </c>
       <c r="R10">
-        <v>0.586333141555</v>
+        <v>0.4594204837600001</v>
       </c>
       <c r="S10">
-        <v>0.002207604922403271</v>
+        <v>0.0005274355684930333</v>
       </c>
       <c r="T10">
-        <v>0.002328110812799227</v>
+        <v>0.0005719819525147584</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3.880765</v>
       </c>
       <c r="I11">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J11">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,28 +1119,28 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.0362555</v>
+        <v>0.01375</v>
       </c>
       <c r="N11">
-        <v>0.07251100000000001</v>
+        <v>0.0275</v>
       </c>
       <c r="O11">
-        <v>0.07930055491031102</v>
+        <v>0.03029331641313915</v>
       </c>
       <c r="P11">
-        <v>0.05540985610906063</v>
+        <v>0.02183146112015242</v>
       </c>
       <c r="Q11">
-        <v>0.04689969181916667</v>
+        <v>0.01778683958333334</v>
       </c>
       <c r="R11">
-        <v>0.281398150915</v>
+        <v>0.1067210375</v>
       </c>
       <c r="S11">
-        <v>0.001589239714817128</v>
+        <v>0.000183780892691053</v>
       </c>
       <c r="T11">
-        <v>0.001117327388503874</v>
+        <v>0.0001328684931591757</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>3.880765</v>
       </c>
       <c r="I12">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J12">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.006707333333333333</v>
+        <v>0.289306</v>
       </c>
       <c r="N12">
-        <v>0.020122</v>
+        <v>0.867918</v>
       </c>
       <c r="O12">
-        <v>0.0146707466536597</v>
+        <v>0.6373845962341553</v>
       </c>
       <c r="P12">
-        <v>0.01537638599145671</v>
+        <v>0.6890152026356526</v>
       </c>
       <c r="Q12">
-        <v>0.008676528147777777</v>
+        <v>0.3742428663633334</v>
       </c>
       <c r="R12">
-        <v>0.07808875333000001</v>
+        <v>3.36818579727</v>
       </c>
       <c r="S12">
-        <v>0.0002940122330087871</v>
+        <v>0.003866830177518385</v>
       </c>
       <c r="T12">
-        <v>0.0003100613936020044</v>
+        <v>0.004193416612571834</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3.880765</v>
       </c>
       <c r="I13">
-        <v>0.02004071366984202</v>
+        <v>0.006066714194796498</v>
       </c>
       <c r="J13">
-        <v>0.02016477693615898</v>
+        <v>0.006086101723925661</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.334225</v>
+        <v>0.02013833333333333</v>
       </c>
       <c r="N13">
-        <v>1.002675</v>
+        <v>0.060415</v>
       </c>
       <c r="O13">
-        <v>0.7310401998289555</v>
+        <v>0.04436777481454065</v>
       </c>
       <c r="P13">
-        <v>0.7662020586414801</v>
+        <v>0.04796173540269122</v>
       </c>
       <c r="Q13">
-        <v>0.4323495607083333</v>
+        <v>0.02605071305277778</v>
       </c>
       <c r="R13">
-        <v>3.891146046375</v>
+        <v>0.234456417475</v>
       </c>
       <c r="S13">
-        <v>0.01465056732591619</v>
+        <v>0.0002691666092589083</v>
       </c>
       <c r="T13">
-        <v>0.01545029360053125</v>
+        <v>0.0002919000005167854</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H14">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="I14">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J14">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.0266875</v>
+        <v>0.08828649999999999</v>
       </c>
       <c r="N14">
-        <v>0.053375</v>
+        <v>0.176573</v>
       </c>
       <c r="O14">
-        <v>0.05837275886883162</v>
+        <v>0.1945084276006261</v>
       </c>
       <c r="P14">
-        <v>0.04078692984265988</v>
+        <v>0.1401762394315881</v>
       </c>
       <c r="Q14">
-        <v>1.06071529025</v>
+        <v>4.172151098749834</v>
       </c>
       <c r="R14">
-        <v>6.3642917415</v>
+        <v>25.032906592499</v>
       </c>
       <c r="S14">
-        <v>0.03594332499835667</v>
+        <v>0.04310836952106292</v>
       </c>
       <c r="T14">
-        <v>0.02527023524527328</v>
+        <v>0.03116615670401196</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H15">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="I15">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J15">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.00886</v>
       </c>
       <c r="O15">
-        <v>0.006459736375679603</v>
+        <v>0.006506637173828191</v>
       </c>
       <c r="P15">
-        <v>0.0067704393143975</v>
+        <v>0.00703369983725638</v>
       </c>
       <c r="Q15">
-        <v>0.1173825133066667</v>
+        <v>0.1395655384644445</v>
       </c>
       <c r="R15">
-        <v>1.05644261976</v>
+        <v>1.25608984618</v>
       </c>
       <c r="S15">
-        <v>0.00397761573127794</v>
+        <v>0.001442048157444296</v>
       </c>
       <c r="T15">
-        <v>0.004194740688957776</v>
+        <v>0.001563841291689817</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H16">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="I16">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J16">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.05036233333333334</v>
+        <v>0.03946133333333333</v>
       </c>
       <c r="N16">
-        <v>0.151087</v>
+        <v>0.118384</v>
       </c>
       <c r="O16">
-        <v>0.1101560033625626</v>
+        <v>0.08693924776371068</v>
       </c>
       <c r="P16">
-        <v>0.1154543301009453</v>
+        <v>0.09398166157265907</v>
       </c>
       <c r="Q16">
-        <v>2.001689818054667</v>
+        <v>1.864822427265778</v>
       </c>
       <c r="R16">
-        <v>18.015208362492</v>
+        <v>16.783401845392</v>
       </c>
       <c r="S16">
-        <v>0.06782912279814787</v>
+        <v>0.01926810711861011</v>
       </c>
       <c r="T16">
-        <v>0.07153169147545863</v>
+        <v>0.02089546134033942</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H17">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="I17">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J17">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,28 +1491,28 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.0362555</v>
+        <v>0.01375</v>
       </c>
       <c r="N17">
-        <v>0.07251100000000001</v>
+        <v>0.0275</v>
       </c>
       <c r="O17">
-        <v>0.07930055491031102</v>
+        <v>0.03029331641313915</v>
       </c>
       <c r="P17">
-        <v>0.05540985610906063</v>
+        <v>0.02183146112015242</v>
       </c>
       <c r="Q17">
-        <v>1.441002836746</v>
+        <v>0.6497831220833334</v>
       </c>
       <c r="R17">
-        <v>8.646017020476</v>
+        <v>3.898698732500001</v>
       </c>
       <c r="S17">
-        <v>0.0488297225097113</v>
+        <v>0.006713824660787496</v>
       </c>
       <c r="T17">
-        <v>0.03433011761817351</v>
+        <v>0.004853909201068844</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H18">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="I18">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J18">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.006707333333333333</v>
+        <v>0.289306</v>
       </c>
       <c r="N18">
-        <v>0.020122</v>
+        <v>0.867918</v>
       </c>
       <c r="O18">
-        <v>0.0146707466536597</v>
+        <v>0.6373845962341553</v>
       </c>
       <c r="P18">
-        <v>0.01537638599145671</v>
+        <v>0.6890152026356526</v>
       </c>
       <c r="Q18">
-        <v>0.2665881413946666</v>
+        <v>13.67172043035934</v>
       </c>
       <c r="R18">
-        <v>2.399293272552</v>
+        <v>123.045483873234</v>
       </c>
       <c r="S18">
-        <v>0.009033587330110013</v>
+        <v>0.1412618005319118</v>
       </c>
       <c r="T18">
-        <v>0.009526701144831645</v>
+        <v>0.153192551489937</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>39.745772</v>
+        <v>47.25695433333334</v>
       </c>
       <c r="H19">
-        <v>119.237316</v>
+        <v>141.770863</v>
       </c>
       <c r="I19">
-        <v>0.6157551175390608</v>
+        <v>0.2216272582778524</v>
       </c>
       <c r="J19">
-        <v>0.6195669873353064</v>
+        <v>0.2223355172773226</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.334225</v>
+        <v>0.02013833333333333</v>
       </c>
       <c r="N19">
-        <v>1.002675</v>
+        <v>0.060415</v>
       </c>
       <c r="O19">
-        <v>0.7310401998289555</v>
+        <v>0.04436777481454065</v>
       </c>
       <c r="P19">
-        <v>0.7662020586414801</v>
+        <v>0.04796173540269122</v>
       </c>
       <c r="Q19">
-        <v>13.2840306467</v>
+        <v>0.9516762986827779</v>
       </c>
       <c r="R19">
-        <v>119.5562758203</v>
+        <v>8.565086688145001</v>
       </c>
       <c r="S19">
-        <v>0.450141744171457</v>
+        <v>0.009833108288035795</v>
       </c>
       <c r="T19">
-        <v>0.4747135011626115</v>
+        <v>0.01066359725027543</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="H20">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="I20">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J20">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.0266875</v>
+        <v>0.08828649999999999</v>
       </c>
       <c r="N20">
-        <v>0.053375</v>
+        <v>0.176573</v>
       </c>
       <c r="O20">
-        <v>0.05837275886883162</v>
+        <v>0.1945084276006261</v>
       </c>
       <c r="P20">
-        <v>0.04078692984265988</v>
+        <v>0.1401762394315881</v>
       </c>
       <c r="Q20">
-        <v>0.02652306496875</v>
+        <v>0.15406572526575</v>
       </c>
       <c r="R20">
-        <v>0.106092259875</v>
+        <v>0.6162629010629999</v>
       </c>
       <c r="S20">
-        <v>0.0008987587459964117</v>
+        <v>0.001591870010958283</v>
       </c>
       <c r="T20">
-        <v>0.0004212529019155301</v>
+        <v>0.0007672519399386738</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="H21">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="I21">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J21">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.00886</v>
       </c>
       <c r="O21">
-        <v>0.006459736375679603</v>
+        <v>0.006506637173828191</v>
       </c>
       <c r="P21">
-        <v>0.0067704393143975</v>
+        <v>0.00703369983725638</v>
       </c>
       <c r="Q21">
-        <v>0.00293513637</v>
+        <v>0.00515376011</v>
       </c>
       <c r="R21">
-        <v>0.01761081822</v>
+        <v>0.03092256066</v>
       </c>
       <c r="S21">
-        <v>9.945982812837731E-05</v>
+        <v>5.325075482318131E-05</v>
       </c>
       <c r="T21">
-        <v>6.99260086364702E-05</v>
+        <v>3.849882024916976E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="H22">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="I22">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J22">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.05036233333333334</v>
+        <v>0.03946133333333333</v>
       </c>
       <c r="N22">
-        <v>0.151087</v>
+        <v>0.118384</v>
       </c>
       <c r="O22">
-        <v>0.1101560033625626</v>
+        <v>0.08693924776371068</v>
       </c>
       <c r="P22">
-        <v>0.1154543301009453</v>
+        <v>0.09398166157265907</v>
       </c>
       <c r="Q22">
-        <v>0.05005202581650001</v>
+        <v>0.068862611384</v>
       </c>
       <c r="R22">
-        <v>0.300312154899</v>
+        <v>0.413175668304</v>
       </c>
       <c r="S22">
-        <v>0.00169605948673049</v>
+        <v>0.0007115166319398979</v>
       </c>
       <c r="T22">
-        <v>0.001192427863076566</v>
+        <v>0.0005144068099749112</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="H23">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="I23">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J23">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,28 +1863,28 @@
         <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.0362555</v>
+        <v>0.01375</v>
       </c>
       <c r="N23">
-        <v>0.07251100000000001</v>
+        <v>0.0275</v>
       </c>
       <c r="O23">
-        <v>0.07930055491031102</v>
+        <v>0.03029331641313915</v>
       </c>
       <c r="P23">
-        <v>0.05540985610906063</v>
+        <v>0.02183146112015242</v>
       </c>
       <c r="Q23">
-        <v>0.03603211173675001</v>
+        <v>0.023994650625</v>
       </c>
       <c r="R23">
-        <v>0.144128446947</v>
+        <v>0.0959786025</v>
       </c>
       <c r="S23">
-        <v>0.001220981647418189</v>
+        <v>0.0002479225323314028</v>
       </c>
       <c r="T23">
-        <v>0.0005722804528486558</v>
+        <v>0.0001194940809088226</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="H24">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="I24">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J24">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.006707333333333333</v>
+        <v>0.289306</v>
       </c>
       <c r="N24">
-        <v>0.020122</v>
+        <v>0.867918</v>
       </c>
       <c r="O24">
-        <v>0.0146707466536597</v>
+        <v>0.6373845962341553</v>
       </c>
       <c r="P24">
-        <v>0.01537638599145671</v>
+        <v>0.6890152026356526</v>
       </c>
       <c r="Q24">
-        <v>0.006666006099</v>
+        <v>0.504857919543</v>
       </c>
       <c r="R24">
-        <v>0.03999603659400001</v>
+        <v>3.029147517258</v>
       </c>
       <c r="S24">
-        <v>0.0002258838218509264</v>
+        <v>0.00521639826463046</v>
       </c>
       <c r="T24">
-        <v>0.0001588093843998931</v>
+        <v>0.003771311407789945</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.9938385000000001</v>
+        <v>1.7450655</v>
       </c>
       <c r="H25">
-        <v>1.987677</v>
+        <v>3.490131</v>
       </c>
       <c r="I25">
-        <v>0.01539688655141342</v>
+        <v>0.008184067038096599</v>
       </c>
       <c r="J25">
-        <v>0.0103281346142149</v>
+        <v>0.005473480691519942</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.334225</v>
+        <v>0.02013833333333333</v>
       </c>
       <c r="N25">
-        <v>1.002675</v>
+        <v>0.060415</v>
       </c>
       <c r="O25">
-        <v>0.7310401998289555</v>
+        <v>0.04436777481454065</v>
       </c>
       <c r="P25">
-        <v>0.7662020586414801</v>
+        <v>0.04796173540269122</v>
       </c>
       <c r="Q25">
-        <v>0.3321656726625</v>
+        <v>0.0351427107275</v>
       </c>
       <c r="R25">
-        <v>1.992994035975</v>
+        <v>0.210856264365</v>
       </c>
       <c r="S25">
-        <v>0.01125574302128902</v>
+        <v>0.0003631088434133746</v>
       </c>
       <c r="T25">
-        <v>0.007913438003337783</v>
+        <v>0.0002625176326584189</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H26">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="I26">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J26">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.0266875</v>
+        <v>0.08828649999999999</v>
       </c>
       <c r="N26">
-        <v>0.053375</v>
+        <v>0.176573</v>
       </c>
       <c r="O26">
-        <v>0.05837275886883162</v>
+        <v>0.1945084276006261</v>
       </c>
       <c r="P26">
-        <v>0.04078692984265988</v>
+        <v>0.1401762394315881</v>
       </c>
       <c r="Q26">
-        <v>0.0063324366875</v>
+        <v>11.49513331634166</v>
       </c>
       <c r="R26">
-        <v>0.037994620125</v>
+        <v>68.97079989804999</v>
       </c>
       <c r="S26">
-        <v>0.0002145805118324301</v>
+        <v>0.1187724133105398</v>
       </c>
       <c r="T26">
-        <v>0.000150862504047819</v>
+        <v>0.08586916384163647</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H27">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="I27">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J27">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.00886</v>
       </c>
       <c r="O27">
-        <v>0.006459736375679603</v>
+        <v>0.006506637173828191</v>
       </c>
       <c r="P27">
-        <v>0.0067704393143975</v>
+        <v>0.00703369983725638</v>
       </c>
       <c r="Q27">
-        <v>0.0007007698866666667</v>
+        <v>0.3845317278888889</v>
       </c>
       <c r="R27">
-        <v>0.00630692898</v>
+        <v>3.460785551</v>
       </c>
       <c r="S27">
-        <v>2.374623993549203E-05</v>
+        <v>0.00397313889791147</v>
       </c>
       <c r="T27">
-        <v>2.504246905599393E-05</v>
+        <v>0.004308704001386957</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H28">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="I28">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J28">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.05036233333333334</v>
+        <v>0.03946133333333333</v>
       </c>
       <c r="N28">
-        <v>0.151087</v>
+        <v>0.118384</v>
       </c>
       <c r="O28">
-        <v>0.1101560033625626</v>
+        <v>0.08693924776371068</v>
       </c>
       <c r="P28">
-        <v>0.1154543301009453</v>
+        <v>0.09398166157265907</v>
       </c>
       <c r="Q28">
-        <v>0.01195002481566667</v>
+        <v>5.137968857155556</v>
       </c>
       <c r="R28">
-        <v>0.107550223341</v>
+        <v>46.2417197144</v>
       </c>
       <c r="S28">
-        <v>0.0004049377148006416</v>
+        <v>0.05308759314789519</v>
       </c>
       <c r="T28">
-        <v>0.0004270419325353223</v>
+        <v>0.05757128831830627</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H29">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="I29">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J29">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2235,28 +2235,28 @@
         <v>0.5</v>
       </c>
       <c r="M29">
-        <v>0.0362555</v>
+        <v>0.01375</v>
       </c>
       <c r="N29">
-        <v>0.07251100000000001</v>
+        <v>0.0275</v>
       </c>
       <c r="O29">
-        <v>0.07930055491031102</v>
+        <v>0.03029331641313915</v>
       </c>
       <c r="P29">
-        <v>0.05540985610906063</v>
+        <v>0.02183146112015242</v>
       </c>
       <c r="Q29">
-        <v>0.0086027412955</v>
+        <v>1.790285979166667</v>
       </c>
       <c r="R29">
-        <v>0.05161644777300001</v>
+        <v>10.741715875</v>
       </c>
       <c r="S29">
-        <v>0.0002915118968333741</v>
+        <v>0.01849796608790611</v>
       </c>
       <c r="T29">
-        <v>0.0002049497148667242</v>
+        <v>0.01337351693432746</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H30">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="I30">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J30">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.006707333333333333</v>
+        <v>0.289306</v>
       </c>
       <c r="N30">
-        <v>0.020122</v>
+        <v>0.867918</v>
       </c>
       <c r="O30">
-        <v>0.0146707466536597</v>
+        <v>0.6373845962341553</v>
       </c>
       <c r="P30">
-        <v>0.01537638599145671</v>
+        <v>0.6890152026356526</v>
       </c>
       <c r="Q30">
-        <v>0.001591522760666667</v>
+        <v>37.66839821736667</v>
       </c>
       <c r="R30">
-        <v>0.014323704846</v>
+        <v>339.0155839563</v>
       </c>
       <c r="S30">
-        <v>5.393023024627208E-05</v>
+        <v>0.389205278329292</v>
       </c>
       <c r="T30">
-        <v>5.687410410211173E-05</v>
+        <v>0.4220769480220953</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.237281</v>
+        <v>130.2026166666667</v>
       </c>
       <c r="H31">
-        <v>0.711843</v>
+        <v>390.60785</v>
       </c>
       <c r="I31">
-        <v>0.003676038549327609</v>
+        <v>0.6106286230147772</v>
       </c>
       <c r="J31">
-        <v>0.003698795291280512</v>
+        <v>0.6125800220482033</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.334225</v>
+        <v>0.02013833333333333</v>
       </c>
       <c r="N31">
-        <v>1.002675</v>
+        <v>0.060415</v>
       </c>
       <c r="O31">
-        <v>0.7310401998289555</v>
+        <v>0.04436777481454065</v>
       </c>
       <c r="P31">
-        <v>0.7662020586414801</v>
+        <v>0.04796173540269122</v>
       </c>
       <c r="Q31">
-        <v>0.079305242225</v>
+        <v>2.622063695305556</v>
       </c>
       <c r="R31">
-        <v>0.713747180025</v>
+        <v>23.59857325775</v>
       </c>
       <c r="S31">
-        <v>0.002687331955679399</v>
+        <v>0.02709223324123267</v>
       </c>
       <c r="T31">
-        <v>0.002834024566672541</v>
+        <v>0.02938040093045068</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H32">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="I32">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J32">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.0266875</v>
+        <v>0.08828649999999999</v>
       </c>
       <c r="N32">
-        <v>0.053375</v>
+        <v>0.176573</v>
       </c>
       <c r="O32">
-        <v>0.05837275886883162</v>
+        <v>0.1945084276006261</v>
       </c>
       <c r="P32">
-        <v>0.04078692984265988</v>
+        <v>0.1401762394315881</v>
       </c>
       <c r="Q32">
-        <v>0.5892596263750001</v>
+        <v>2.863686016794833</v>
       </c>
       <c r="R32">
-        <v>3.53555775825</v>
+        <v>17.182116100769</v>
       </c>
       <c r="S32">
-        <v>0.0199676109639326</v>
+        <v>0.02958877377218753</v>
       </c>
       <c r="T32">
-        <v>0.0140383847729097</v>
+        <v>0.02139186358261545</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H33">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="I33">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J33">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.00886</v>
       </c>
       <c r="O33">
-        <v>0.006459736375679603</v>
+        <v>0.006506637173828191</v>
       </c>
       <c r="P33">
-        <v>0.0067704393143975</v>
+        <v>0.00703369983725638</v>
       </c>
       <c r="Q33">
-        <v>0.06520955865333335</v>
+        <v>0.09579515973111111</v>
       </c>
       <c r="R33">
-        <v>0.58688602788</v>
+        <v>0.8621564375799999</v>
       </c>
       <c r="S33">
-        <v>0.00220968659660194</v>
+        <v>0.0009897947236990991</v>
       </c>
       <c r="T33">
-        <v>0.002330306118744355</v>
+        <v>0.001073391239555158</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H34">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="I34">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J34">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.05036233333333334</v>
+        <v>0.03946133333333333</v>
       </c>
       <c r="N34">
-        <v>0.151087</v>
+        <v>0.118384</v>
       </c>
       <c r="O34">
-        <v>0.1101560033625626</v>
+        <v>0.08693924776371068</v>
       </c>
       <c r="P34">
-        <v>0.1154543301009453</v>
+        <v>0.09398166157265907</v>
       </c>
       <c r="Q34">
-        <v>1.111999614927333</v>
+        <v>1.279979028172445</v>
       </c>
       <c r="R34">
-        <v>10.007996534346</v>
+        <v>11.519811253552</v>
       </c>
       <c r="S34">
-        <v>0.03768114207909676</v>
+        <v>0.01322526620433343</v>
       </c>
       <c r="T34">
-        <v>0.03973803166622215</v>
+        <v>0.01434225152409682</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H35">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="I35">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J35">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2607,28 +2607,28 @@
         <v>0.5</v>
       </c>
       <c r="M35">
-        <v>0.0362555</v>
+        <v>0.01375</v>
       </c>
       <c r="N35">
-        <v>0.07251100000000001</v>
+        <v>0.0275</v>
       </c>
       <c r="O35">
-        <v>0.07930055491031102</v>
+        <v>0.03029331641313915</v>
       </c>
       <c r="P35">
-        <v>0.05540985610906063</v>
+        <v>0.02183146112015242</v>
       </c>
       <c r="Q35">
-        <v>0.8005209324230002</v>
+        <v>0.4459989095833333</v>
       </c>
       <c r="R35">
-        <v>4.803125594538001</v>
+        <v>2.6759934575</v>
       </c>
       <c r="S35">
-        <v>0.02712639697621952</v>
+        <v>0.004608242929185986</v>
       </c>
       <c r="T35">
-        <v>0.01907142516662211</v>
+        <v>0.003331631951215219</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H36">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="I36">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J36">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>0.006707333333333333</v>
+        <v>0.289306</v>
       </c>
       <c r="N36">
-        <v>0.020122</v>
+        <v>0.867918</v>
       </c>
       <c r="O36">
-        <v>0.0146707466536597</v>
+        <v>0.6373845962341553</v>
       </c>
       <c r="P36">
-        <v>0.01537638599145671</v>
+        <v>0.6890152026356526</v>
       </c>
       <c r="Q36">
-        <v>0.1480978260973334</v>
+        <v>9.384011675339334</v>
       </c>
       <c r="R36">
-        <v>1.332880434876</v>
+        <v>84.45610507805399</v>
       </c>
       <c r="S36">
-        <v>0.005018432697158492</v>
+        <v>0.09695944209971499</v>
       </c>
       <c r="T36">
-        <v>0.005292372429048973</v>
+        <v>0.1051484850849022</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>22.079986</v>
+        <v>32.43628433333333</v>
       </c>
       <c r="H37">
-        <v>66.239958</v>
+        <v>97.308853</v>
       </c>
       <c r="I37">
-        <v>0.3420707081671685</v>
+        <v>0.1521207802519518</v>
       </c>
       <c r="J37">
-        <v>0.3441883178524182</v>
+        <v>0.1526069159035728</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.334225</v>
+        <v>0.02013833333333333</v>
       </c>
       <c r="N37">
-        <v>1.002675</v>
+        <v>0.060415</v>
       </c>
       <c r="O37">
-        <v>0.7310401998289555</v>
+        <v>0.04436777481454065</v>
       </c>
       <c r="P37">
-        <v>0.7662020586414801</v>
+        <v>0.04796173540269122</v>
       </c>
       <c r="Q37">
-        <v>7.379683320850001</v>
+        <v>0.6532127059994445</v>
       </c>
       <c r="R37">
-        <v>66.41714988765</v>
+        <v>5.878914353995</v>
       </c>
       <c r="S37">
-        <v>0.2500674388541592</v>
+        <v>0.006749260522830821</v>
       </c>
       <c r="T37">
-        <v>0.2637177976988709</v>
+        <v>0.007319292521187909</v>
       </c>
     </row>
   </sheetData>
